--- a/templates/placeringsnycklar_julmaten.xlsx
+++ b/templates/placeringsnycklar_julmaten.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dokumente\Kyrkans dator\03_Marknader\Marknader 2023\Webshop julmat\Placeringslista\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EFA23D-FDFC-412E-B729-F47FC030BC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65E8E9B6-E5BA-411E-8745-9C5A99F56AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,21 +18,10 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Placering julmaten 2023'!$A$1:$G$30</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -41,151 +30,151 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
+    <t>Område</t>
+  </si>
+  <si>
+    <t>info till Packlistan</t>
+  </si>
+  <si>
+    <t>var?</t>
+  </si>
+  <si>
+    <t>Packningskategori</t>
+  </si>
+  <si>
+    <t>Kommentar/exempel</t>
+  </si>
+  <si>
+    <t>plocklistan sorteras efter lokal och inom varje lokal efter område</t>
+  </si>
+  <si>
+    <t>"var?" &amp; "Packningskategori"</t>
+  </si>
+  <si>
+    <t>packlokal, ändras inför varje marknad efter behov</t>
+  </si>
+  <si>
+    <t>Packningskategorin är en egenskap av varje produkt, antecknas i produktlistan och sparas i webshopen. Ska normalt inte ändras för en given produkt. Det går att foga in nya kategorier; viktigt är att stavningen i produktlistan är samma som här</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Knäcke_stor</t>
+  </si>
+  <si>
+    <t>Färskt_bröd</t>
+  </si>
+  <si>
+    <t>mjuka tunnbröd, hönö mm</t>
+  </si>
+  <si>
+    <t>Pepparkaka_burk</t>
+  </si>
+  <si>
+    <t>Godis</t>
+  </si>
+  <si>
+    <t>Godispåse</t>
+  </si>
+  <si>
+    <t>Chips_Ostbågar</t>
+  </si>
+  <si>
+    <t>Presentask_o_strut</t>
+  </si>
+  <si>
+    <t>Aladdin, Gröna kulor mm samt finstrutar och polkakäppar</t>
+  </si>
+  <si>
+    <t>Mat</t>
+  </si>
+  <si>
+    <t>Konserv_söt</t>
+  </si>
+  <si>
+    <t>sylt, honung,lingon, marmelader</t>
+  </si>
+  <si>
+    <t>Mat_div</t>
+  </si>
+  <si>
+    <t>ättiksprit, glöggextrakt, Senap</t>
+  </si>
+  <si>
+    <t>Dricka</t>
+  </si>
+  <si>
+    <t>Konserv_ej_söt</t>
+  </si>
+  <si>
+    <t>Rödbetor i glas, ärtsoppa, bostongurka etc</t>
+  </si>
+  <si>
+    <t>hemlagat</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Glögg</t>
+  </si>
+  <si>
+    <t>Färskvara_kolla_vikten</t>
+  </si>
+  <si>
+    <t>lax, skinka</t>
+  </si>
+  <si>
+    <t>Tub</t>
+  </si>
+  <si>
+    <t>Sill_div</t>
+  </si>
+  <si>
+    <t>Sill_liten_burk</t>
+  </si>
+  <si>
+    <t>Sill_stor_burk</t>
+  </si>
+  <si>
+    <t>Korv_kött</t>
+  </si>
+  <si>
+    <t>Plastask_liten</t>
+  </si>
+  <si>
+    <t>gäller rödbetssallad, skagenröra mm</t>
+  </si>
+  <si>
+    <t>Plastask_stor</t>
+  </si>
+  <si>
+    <t>Smör</t>
+  </si>
+  <si>
+    <t>Kyl_div</t>
+  </si>
+  <si>
+    <t>t ex ishavsrom, ostkaka, ansjovis  mm</t>
+  </si>
+  <si>
+    <t>Ost</t>
+  </si>
+  <si>
+    <t>hårdost!</t>
+  </si>
+  <si>
+    <t>Bröd</t>
+  </si>
+  <si>
+    <t>kaviar, laxpastej, ej mjukost</t>
+  </si>
+  <si>
+    <t>även påsar med lakrits typ Djungelvrål</t>
+  </si>
+  <si>
     <t>Julmaten 2023</t>
-  </si>
-  <si>
-    <t>Område</t>
-  </si>
-  <si>
-    <t>info till Packlistan</t>
-  </si>
-  <si>
-    <t>var?</t>
-  </si>
-  <si>
-    <t>Packningskategori</t>
-  </si>
-  <si>
-    <t>Kommentar/exempel</t>
-  </si>
-  <si>
-    <t>plocklistan sorteras efter lokal och inom varje lokal efter område</t>
-  </si>
-  <si>
-    <t>"var?" &amp; "Packningskategori"</t>
-  </si>
-  <si>
-    <t>packlokal, ändras inför varje marknad efter behov</t>
-  </si>
-  <si>
-    <t>Packningskategorin är en egenskap av varje produkt, antecknas i produktlistan och sparas i webshopen. Ska normalt inte ändras för en given produkt. Det går att foga in nya kategorier; viktigt är att stavningen i produktlistan är samma som här</t>
-  </si>
-  <si>
-    <t>Bröd</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Färskt_bröd</t>
-  </si>
-  <si>
-    <t>mjuka tunnbröd, hönö mm</t>
-  </si>
-  <si>
-    <t>Knäcke_stor</t>
-  </si>
-  <si>
-    <t>Pepparkaka_burk</t>
-  </si>
-  <si>
-    <t>Godis</t>
-  </si>
-  <si>
-    <t>Chips_Ostbågar</t>
-  </si>
-  <si>
-    <t>Godispåse</t>
-  </si>
-  <si>
-    <t>även påsar med lakrits typ Djungelvrål</t>
-  </si>
-  <si>
-    <t>Presentask_o_strut</t>
-  </si>
-  <si>
-    <t>Aladdin, Gröna kulor mm samt finstrutar och polkakäppar</t>
-  </si>
-  <si>
-    <t>Mat</t>
-  </si>
-  <si>
-    <t>Dricka</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Färskvara_kolla_vikten</t>
-  </si>
-  <si>
-    <t>lax, skinka</t>
-  </si>
-  <si>
-    <t>Konserv_ej_söt</t>
-  </si>
-  <si>
-    <t>Rödbetor i glas, ärtsoppa, bostongurka etc</t>
-  </si>
-  <si>
-    <t>Konserv_söt</t>
-  </si>
-  <si>
-    <t>sylt, honung,lingon, marmelader</t>
-  </si>
-  <si>
-    <t>Korv_kött</t>
-  </si>
-  <si>
-    <t>Kyl_div</t>
-  </si>
-  <si>
-    <t>t ex ishavsrom, ostkaka, ansjovis  mm</t>
-  </si>
-  <si>
-    <t>Mat_div</t>
-  </si>
-  <si>
-    <t>ättiksprit, glöggextrakt, Senap</t>
-  </si>
-  <si>
-    <t>Plastask_liten</t>
-  </si>
-  <si>
-    <t>gäller rödbetssallad, skagenröra mm</t>
-  </si>
-  <si>
-    <t>Plastask_stor</t>
-  </si>
-  <si>
-    <t>Sill_div</t>
-  </si>
-  <si>
-    <t>Sill_liten_burk</t>
-  </si>
-  <si>
-    <t>Sill_stor_burk</t>
-  </si>
-  <si>
-    <t>Smör</t>
-  </si>
-  <si>
-    <t>Tub</t>
-  </si>
-  <si>
-    <t>kaviar, laxpastej, ej mjukost</t>
-  </si>
-  <si>
-    <t>Ost</t>
-  </si>
-  <si>
-    <t>hårdost!</t>
-  </si>
-  <si>
-    <t>hemlagat</t>
-  </si>
-  <si>
-    <t>Glögg</t>
   </si>
 </sst>
 </file>
@@ -451,9 +440,9 @@
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Überschrift 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Überschrift 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,7 +458,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -772,10 +761,10 @@
   <dimension ref="A1:AMI29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G30"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
@@ -792,24 +781,24 @@
   <sheetData>
     <row r="1" spans="1:1023" ht="21">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1023" ht="21">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
@@ -1832,16 +1821,16 @@
     </row>
     <row r="3" spans="1:1023" ht="102.75">
       <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="7"/>
@@ -2865,371 +2854,371 @@
     </row>
     <row r="4" spans="1:1023">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ref="B4:B6" si="0">C4&amp;" / "&amp;D4</f>
         <v>C / Färskt_bröd</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1023">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>C / Knäcke_stor</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1023">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>C / Pepparkaka_burk</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1023"/>
     <row r="8" spans="1:1023">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ref="B8:B10" si="1">C8&amp;" / "&amp;D8</f>
         <v>C / Chips_Ostbågar</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1023">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
         <v>C / Godispåse</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:1023">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
         <v>C / Presentask_o_strut</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1023"/>
     <row r="12" spans="1:1023">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" ref="B12:B25" si="2">C12&amp;" / "&amp;D12</f>
-        <v>C / Dricka</v>
+        <v>P / Dricka</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:1023">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="2"/>
         <v>P / Färskvara_kolla_vikten</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:1023">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="2"/>
         <v>P / Konserv_ej_söt</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:1023">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="2"/>
         <v>P / Konserv_söt</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1023">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="2"/>
         <v>P / Korv_kött</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="2"/>
         <v>P / Kyl_div</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="2"/>
         <v>P / Mat_div</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="2"/>
         <v>P / Plastask_liten</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="2"/>
         <v>P / Plastask_stor</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
         <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="2"/>
         <v>P / Sill_div</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="2"/>
         <v>P / Sill_liten_burk</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="2"/>
         <v>P / Sill_stor_burk</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="2"/>
         <v>P / Smör</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="2"/>
         <v>P / Tub</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:8"/>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" t="str">
         <f>C27&amp;" / "&amp;D27</f>
         <v>P / Ost</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B29" t="str">
         <f>C29&amp;" / "&amp;D29</f>
         <v>P / Glögg</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H29" s="8"/>
     </row>
